--- a/Model Info.xlsx
+++ b/Model Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\IISc\Sem 2\MLSP\Project\My Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB3837B-7343-4B05-9760-0F986D55B02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6480C1-34BD-44B1-88B3-B9C669B08BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{61FA521D-6373-47C6-9576-D0DF5222FA85}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Model</t>
   </si>
@@ -79,6 +79,24 @@
   </si>
   <si>
     <t>Performed best. Training stopped after 17 epochs</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Attention + Diff + Dot</t>
+  </si>
+  <si>
+    <t>Diff + Dot</t>
+  </si>
+  <si>
+    <t>38 epochs</t>
+  </si>
+  <si>
+    <t>46 epochs</t>
   </si>
 </sst>
 </file>
@@ -430,175 +448,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F627C6-F8EF-4210-9D1E-237E3017C56E}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="6" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="5" max="7" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
         <v>1E-3</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>100</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>300</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>79.56</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>76.38</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>76.5</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
         <v>0.01</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>100</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>300</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>78.34</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>74.58</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>74.11</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>100</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>300</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>75.099999999999994</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>74.91</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>75.27</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.1</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>100</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>300</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>81.41</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>78.930000000000007</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>79.73</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D6">
+        <v>0.1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>300</v>
+      </c>
+      <c r="H6">
+        <v>82.09</v>
+      </c>
+      <c r="I6">
+        <v>79.680000000000007</v>
+      </c>
+      <c r="J6">
+        <v>81.040000000000006</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D7">
+        <v>0.1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>300</v>
+      </c>
+      <c r="H7">
+        <v>83.43</v>
+      </c>
+      <c r="I7">
+        <v>79.92</v>
+      </c>
+      <c r="J7">
+        <v>80.62</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Model Info.xlsx
+++ b/Model Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\IISc\Sem 2\MLSP\Project\My Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6480C1-34BD-44B1-88B3-B9C669B08BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0183FFC7-A76B-4F18-BAE7-5E58B05129CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{61FA521D-6373-47C6-9576-D0DF5222FA85}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Model</t>
   </si>
@@ -97,6 +97,24 @@
   </si>
   <si>
     <t>46 epochs</t>
+  </si>
+  <si>
+    <t>Layer</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>GRU</t>
+  </si>
+  <si>
+    <t>37 epochs</t>
+  </si>
+  <si>
+    <t>35 epochs</t>
+  </si>
+  <si>
+    <t>50 epochs</t>
   </si>
 </sst>
 </file>
@@ -448,261 +466,396 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F627C6-F8EF-4210-9D1E-237E3017C56E}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="5" max="7" width="10.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="6" max="8" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>1E-3</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>100</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>300</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>79.56</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>76.38</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>76.5</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.01</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>100</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>300</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>78.34</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>74.58</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>74.11</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>100</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>300</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>75.099999999999994</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>74.91</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>75.27</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.1</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>100</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>300</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>81.41</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>78.930000000000007</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>79.73</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.1</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>100</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>300</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>82.09</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>79.680000000000007</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>81.040000000000006</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.1</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>100</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>300</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>83.43</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>79.92</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>80.62</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E8">
+        <v>0.1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>300</v>
+      </c>
+      <c r="I8">
+        <v>83.26</v>
+      </c>
+      <c r="J8">
+        <v>80.28</v>
+      </c>
+      <c r="K8">
+        <v>81.569999999999993</v>
+      </c>
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E9">
+        <v>0.1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>300</v>
+      </c>
+      <c r="I9">
+        <v>82.42</v>
+      </c>
+      <c r="J9">
+        <v>80.209999999999994</v>
+      </c>
+      <c r="K9">
+        <v>81.14</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E10">
+        <v>0.1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>300</v>
+      </c>
+      <c r="I10">
+        <v>80.77</v>
+      </c>
+      <c r="J10">
+        <v>78.97</v>
+      </c>
+      <c r="K10">
+        <v>80.209999999999994</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Model Info.xlsx
+++ b/Model Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\IISc\Sem 2\MLSP\Project\My Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0183FFC7-A76B-4F18-BAE7-5E58B05129CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D829E9-15C8-4DC8-8728-94F9B764D967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{61FA521D-6373-47C6-9576-D0DF5222FA85}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>Model</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Dropout</t>
   </si>
   <si>
-    <t>LSTM layers</t>
-  </si>
-  <si>
     <t>LSTM units</t>
   </si>
   <si>
@@ -87,9 +84,6 @@
     <t>Baseline</t>
   </si>
   <si>
-    <t>Attention + Diff + Dot</t>
-  </si>
-  <si>
     <t>Diff + Dot</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
     <t>LSTM</t>
   </si>
   <si>
-    <t>GRU</t>
-  </si>
-  <si>
     <t>37 epochs</t>
   </si>
   <si>
@@ -115,6 +106,30 @@
   </si>
   <si>
     <t>50 epochs</t>
+  </si>
+  <si>
+    <t>Rochtaschel Attention</t>
+  </si>
+  <si>
+    <t>50  epochs</t>
+  </si>
+  <si>
+    <t>Recurrent layers</t>
+  </si>
+  <si>
+    <t>Custom Attention + Diff + Dot</t>
+  </si>
+  <si>
+    <t>Rochtaschel 2-way Attention</t>
+  </si>
+  <si>
+    <t>52 epochs</t>
+  </si>
+  <si>
+    <t>BiLSTM</t>
+  </si>
+  <si>
+    <t>BiGRU</t>
   </si>
 </sst>
 </file>
@@ -466,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F627C6-F8EF-4210-9D1E-237E3017C56E}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -495,25 +510,25 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -521,10 +536,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>1E-3</v>
@@ -551,7 +566,7 @@
         <v>76.5</v>
       </c>
       <c r="L2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -559,10 +574,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>0.01</v>
@@ -589,7 +604,7 @@
         <v>74.11</v>
       </c>
       <c r="L3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -597,13 +612,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -627,7 +642,7 @@
         <v>75.27</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -635,10 +650,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>1.0000000000000001E-5</v>
@@ -665,7 +680,7 @@
         <v>79.73</v>
       </c>
       <c r="L5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -673,10 +688,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>1.0000000000000001E-5</v>
@@ -703,7 +718,7 @@
         <v>81.040000000000006</v>
       </c>
       <c r="L6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -711,10 +726,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>1.0000000000000001E-5</v>
@@ -741,7 +756,7 @@
         <v>80.62</v>
       </c>
       <c r="L7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -749,10 +764,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>1.0000000000000001E-5</v>
@@ -779,7 +794,7 @@
         <v>81.569999999999993</v>
       </c>
       <c r="L8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -787,10 +802,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>1.0000000000000001E-5</v>
@@ -817,7 +832,7 @@
         <v>81.14</v>
       </c>
       <c r="L9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -825,10 +840,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>1.0000000000000001E-5</v>
@@ -855,7 +870,83 @@
         <v>80.209999999999994</v>
       </c>
       <c r="L10" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="E11">
+        <v>0.1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>300</v>
+      </c>
+      <c r="I11">
+        <v>83.2</v>
+      </c>
+      <c r="J11">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="K11">
+        <v>81.5</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="E12">
+        <v>0.1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>300</v>
+      </c>
+      <c r="I12">
+        <v>83.27</v>
+      </c>
+      <c r="J12">
+        <v>80.260000000000005</v>
+      </c>
+      <c r="K12">
+        <v>81.92</v>
+      </c>
+      <c r="L12" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Model Info.xlsx
+++ b/Model Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\IISc\Sem 2\MLSP\Project\My Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D829E9-15C8-4DC8-8728-94F9B764D967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB9B84B-400C-4E7F-8648-32635F5E7ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{61FA521D-6373-47C6-9576-D0DF5222FA85}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
   <si>
     <t>Model</t>
   </si>
@@ -130,6 +130,21 @@
   </si>
   <si>
     <t>BiGRU</t>
+  </si>
+  <si>
+    <t>Inner attention</t>
+  </si>
+  <si>
+    <t>300 (840B)</t>
+  </si>
+  <si>
+    <t>43 epochs</t>
+  </si>
+  <si>
+    <t>36 epochs</t>
+  </si>
+  <si>
+    <t>BEST</t>
   </si>
 </sst>
 </file>
@@ -481,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F627C6-F8EF-4210-9D1E-237E3017C56E}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -949,6 +964,199 @@
         <v>29</v>
       </c>
     </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E13">
+        <v>0.1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13">
+        <v>83.98</v>
+      </c>
+      <c r="J13">
+        <v>81.16</v>
+      </c>
+      <c r="K13">
+        <v>82.17</v>
+      </c>
+      <c r="L13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E14">
+        <v>0.1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14">
+        <v>83.18</v>
+      </c>
+      <c r="J14">
+        <v>81.010000000000005</v>
+      </c>
+      <c r="K14">
+        <v>81.97</v>
+      </c>
+      <c r="L14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="E15">
+        <v>0.1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15">
+        <v>84.47</v>
+      </c>
+      <c r="J15">
+        <v>81.56</v>
+      </c>
+      <c r="K15">
+        <v>82.29</v>
+      </c>
+      <c r="L15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="E16">
+        <v>0.25</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16">
+        <v>83.84</v>
+      </c>
+      <c r="J16">
+        <v>81.260000000000005</v>
+      </c>
+      <c r="K16">
+        <v>82.22</v>
+      </c>
+      <c r="L16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="E17">
+        <v>0.25</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17">
+        <v>84.01</v>
+      </c>
+      <c r="J17">
+        <v>81.63</v>
+      </c>
+      <c r="K17">
+        <v>82.85</v>
+      </c>
+      <c r="L17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
